--- a/data/trans_camb/P25A_8_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_8_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,21</t>
+          <t>-1,59; 5,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,8</t>
+          <t>-1,33; 7,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,79</t>
+          <t>1,4; 12,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,11</t>
+          <t>-4,38; 4,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,04</t>
+          <t>-4,01; 5,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,12</t>
+          <t>-0,07; 10,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 3,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 4,29</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 9,95</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>124,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>323,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,77%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>106,05%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>156,94%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,98; 624,29</t>
+          <t>-72,8; 1020,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-71,53; 603,58</t>
+          <t>-57,41; 1100,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,9; 74,08</t>
+          <t>-10,75; 1906,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,92; 54,73</t>
+          <t>-57,15; 142,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 73,04</t>
+          <t>-57,32; 176,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,38; 78,16</t>
+          <t>-9,41; 345,16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-42,91; 149,78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-38,61; 186,53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37,62; 406,83</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,32</t>
+          <t>-5,5; 4,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,44</t>
+          <t>-3,33; 9,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 4,3</t>
+          <t>-2,52; 9,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 9,62</t>
+          <t>-0,86; 7,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,25</t>
+          <t>-0,3; 7,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 6,27</t>
+          <t>1,05; 10,04</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 4,6</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 6,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 8,71</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,23%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,93%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>132,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>175,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>261,84%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46,45%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>90,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>151,29%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,19; 159,86</t>
+          <t>-83,37; 362,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,0; 318,24</t>
+          <t>-71,65; 549,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,3; 224,63</t>
+          <t>-55,96; 577,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 398,31</t>
+          <t>-40,16; 1034,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 93,18</t>
+          <t>-38,3; 1001,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 266,07</t>
+          <t>13,77; 1499,23</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-40,42; 279,6</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-22,67; 381,3</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9,14; 479,68</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>8,38</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 8,29</t>
+          <t>-21,91; 5,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 12,93</t>
+          <t>-14,17; 19,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 4,37</t>
+          <t>-22,02; 5,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 11,04</t>
+          <t>-13,82; 10,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,91</t>
+          <t>-8,4; 20,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 8,91</t>
+          <t>-5,19; 26,37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; 5,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; 14,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 11,56</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>-59,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-44,9%</t>
+          <t>-63,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>-23,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,29%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>102,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-40,43%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40,86%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1228,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,84; 472,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,45; 251,22</t>
+          <t>-66,91; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,0; 322,16</t>
+          <t>-59,3; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 279,85</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-68,45; 421,0</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-77,34; 390,49</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,9</t>
+          <t>-2,93; 2,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,98</t>
+          <t>-1,47; 5,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,99</t>
+          <t>-0,0; 7,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,34</t>
+          <t>-1,57; 3,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,51</t>
+          <t>-0,7; 5,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,24</t>
+          <t>2,11; 9,49</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 2,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 4,64</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 7,75</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>54,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>113,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>56,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>140,7%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>54,96%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>127,33%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 120,71</t>
+          <t>-59,38; 149,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 231,36</t>
+          <t>-39,86; 264,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 51,02</t>
+          <t>-6,37; 371,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 107,59</t>
+          <t>-31,84; 145,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 46,98</t>
+          <t>-15,55; 181,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 102,97</t>
+          <t>35,77; 324,76</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-28,29; 102,43</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 161,49</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>44,95; 268,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
